--- a/fips_out_data/patent.xlsx
+++ b/fips_out_data/patent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Патенты РФ" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="ИНИД" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Патенты РФ'!$A$1:$AC$229</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="out_patent" localSheetId="0">'Патенты РФ'!$A$2:$AC$229</definedName>
     <definedName name="out_soft" localSheetId="1">'ПО и БД'!$A$2:$W$122</definedName>
   </definedNames>
@@ -99,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="3405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="3405">
   <si>
     <t>11</t>
   </si>
@@ -10420,10 +10422,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -10444,9 +10474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10484,7 +10514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10556,7 +10586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10706,43 +10736,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист2" filterMode="1"/>
   <dimension ref="A1:AC229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Z83" sqref="Z83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="4" customWidth="1"/>
-    <col min="11" max="13" width="10.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="58" style="4" customWidth="1"/>
-    <col min="16" max="16" width="50.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="184.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="80.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="68.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="38" style="4" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="80.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" style="4" customWidth="1"/>
-    <col min="24" max="24" width="57.28515625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="46" style="4" customWidth="1"/>
-    <col min="26" max="29" width="81.140625" customWidth="1"/>
+    <col min="24" max="24" width="64.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="120.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="str">
         <f>IF(INDEX(ИНИД!$B:$B,MATCH(VALUE(A2),ИНИД!$A:$A,0))="",INDEX(ИНИД!$C:$C,MATCH(VALUE(A2),ИНИД!$A:$A,0)),INDEX(ИНИД!$B:$B,MATCH(VALUE(A2),ИНИД!$A:$A,0)))</f>
         <v>Номер документа</v>
@@ -10860,7 +10894,7 @@
         <v>Ссылка на страницу официальной публикации патента в PDF</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10949,7 +10983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -11020,7 +11054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -11073,7 +11107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -11123,7 +11157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -11170,7 +11204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -11223,7 +11257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
@@ -11270,7 +11304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>78</v>
       </c>
@@ -11317,7 +11351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -11370,7 +11404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -11426,7 +11460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>98</v>
       </c>
@@ -11479,7 +11513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
@@ -11523,7 +11557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>109</v>
       </c>
@@ -11585,7 +11619,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -11641,7 +11675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>125</v>
       </c>
@@ -11685,7 +11719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>131</v>
       </c>
@@ -11729,7 +11763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -11788,7 +11822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>146</v>
       </c>
@@ -11832,7 +11866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
@@ -11906,7 +11940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>162</v>
       </c>
@@ -11974,7 +12008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -12030,7 +12064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>177</v>
       </c>
@@ -12086,7 +12120,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
@@ -12142,7 +12176,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>192</v>
       </c>
@@ -12213,7 +12247,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>203</v>
       </c>
@@ -12284,7 +12318,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>213</v>
       </c>
@@ -12340,7 +12374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>221</v>
       </c>
@@ -12411,7 +12445,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>232</v>
       </c>
@@ -12482,7 +12516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>237</v>
       </c>
@@ -12538,7 +12572,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>245</v>
       </c>
@@ -12594,7 +12628,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>253</v>
       </c>
@@ -12650,7 +12684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>261</v>
       </c>
@@ -12706,7 +12740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>269</v>
       </c>
@@ -12777,7 +12811,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>280</v>
       </c>
@@ -12836,7 +12870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>289</v>
       </c>
@@ -12898,7 +12932,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>296</v>
       </c>
@@ -12957,7 +12991,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>301</v>
       </c>
@@ -13010,7 +13044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>308</v>
       </c>
@@ -13066,7 +13100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>315</v>
       </c>
@@ -13137,7 +13171,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>326</v>
       </c>
@@ -13196,7 +13230,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>334</v>
       </c>
@@ -13243,7 +13277,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>137</v>
       </c>
@@ -13302,7 +13336,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>341</v>
       </c>
@@ -13355,7 +13389,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>349</v>
       </c>
@@ -13408,7 +13442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>356</v>
       </c>
@@ -13464,7 +13498,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>364</v>
       </c>
@@ -13508,7 +13542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>370</v>
       </c>
@@ -13576,7 +13610,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>379</v>
       </c>
@@ -13647,7 +13681,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>389</v>
       </c>
@@ -13718,7 +13752,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>400</v>
       </c>
@@ -13777,7 +13811,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>409</v>
       </c>
@@ -13836,7 +13870,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>415</v>
       </c>
@@ -13904,7 +13938,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>422</v>
       </c>
@@ -13960,7 +13994,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>430</v>
       </c>
@@ -14013,7 +14047,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>437</v>
       </c>
@@ -14081,7 +14115,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>446</v>
       </c>
@@ -14149,7 +14183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>455</v>
       </c>
@@ -14208,7 +14242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>463</v>
       </c>
@@ -14279,7 +14313,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>473</v>
       </c>
@@ -14338,7 +14372,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>29</v>
       </c>
@@ -14409,7 +14443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>473</v>
       </c>
@@ -14468,7 +14502,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>480</v>
       </c>
@@ -14527,7 +14561,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>486</v>
       </c>
@@ -14598,7 +14632,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>497</v>
       </c>
@@ -14657,7 +14691,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="195" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>506</v>
       </c>
@@ -14713,7 +14747,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>514</v>
       </c>
@@ -14760,7 +14794,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="195" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>506</v>
       </c>
@@ -14816,7 +14850,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>497</v>
       </c>
@@ -14875,7 +14909,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>519</v>
       </c>
@@ -14946,7 +14980,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>486</v>
       </c>
@@ -15017,7 +15051,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>530</v>
       </c>
@@ -15076,7 +15110,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>539</v>
       </c>
@@ -15135,7 +15169,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="240" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>545</v>
       </c>
@@ -15191,7 +15225,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>552</v>
       </c>
@@ -15247,7 +15281,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>89</v>
       </c>
@@ -15303,7 +15337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>560</v>
       </c>
@@ -15362,7 +15396,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>221</v>
       </c>
@@ -15433,7 +15467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>564</v>
       </c>
@@ -15504,7 +15538,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>573</v>
       </c>
@@ -15557,7 +15591,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>580</v>
       </c>
@@ -15604,7 +15638,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>586</v>
       </c>
@@ -15657,7 +15691,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>593</v>
       </c>
@@ -15713,7 +15747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>601</v>
       </c>
@@ -15763,7 +15797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>606</v>
       </c>
@@ -15810,7 +15844,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>613</v>
       </c>
@@ -15857,7 +15891,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>616</v>
       </c>
@@ -15904,7 +15938,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>623</v>
       </c>
@@ -15951,7 +15985,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>629</v>
       </c>
@@ -16022,7 +16056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>639</v>
       </c>
@@ -16069,7 +16103,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>646</v>
       </c>
@@ -16128,7 +16162,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>649</v>
       </c>
@@ -16187,7 +16221,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>654</v>
       </c>
@@ -16243,7 +16277,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>662</v>
       </c>
@@ -16302,7 +16336,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>670</v>
       </c>
@@ -16361,7 +16395,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>677</v>
       </c>
@@ -16417,7 +16451,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>685</v>
       </c>
@@ -16476,7 +16510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>692</v>
       </c>
@@ -16535,7 +16569,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>169</v>
       </c>
@@ -16591,7 +16625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>677</v>
       </c>
@@ -16647,7 +16681,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>701</v>
       </c>
@@ -16706,7 +16740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>708</v>
       </c>
@@ -16753,7 +16787,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>714</v>
       </c>
@@ -16812,7 +16846,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>718</v>
       </c>
@@ -16863,7 +16897,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>724</v>
       </c>
@@ -16914,7 +16948,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>729</v>
       </c>
@@ -16973,7 +17007,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>732</v>
       </c>
@@ -17032,7 +17066,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>739</v>
       </c>
@@ -17083,7 +17117,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>744</v>
       </c>
@@ -17142,7 +17176,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>751</v>
       </c>
@@ -17201,7 +17235,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>758</v>
       </c>
@@ -17254,7 +17288,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>765</v>
       </c>
@@ -17301,7 +17335,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>769</v>
       </c>
@@ -17360,7 +17394,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>776</v>
       </c>
@@ -17419,7 +17453,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>782</v>
       </c>
@@ -17466,7 +17500,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>789</v>
       </c>
@@ -17525,7 +17559,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>797</v>
       </c>
@@ -17584,7 +17618,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>804</v>
       </c>
@@ -17643,7 +17677,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>807</v>
       </c>
@@ -17693,7 +17727,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>812</v>
       </c>
@@ -17752,7 +17786,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>816</v>
       </c>
@@ -17799,7 +17833,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>822</v>
       </c>
@@ -17858,7 +17892,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>825</v>
       </c>
@@ -17917,7 +17951,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>654</v>
       </c>
@@ -17973,7 +18007,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>832</v>
       </c>
@@ -18020,7 +18054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>839</v>
       </c>
@@ -18070,7 +18104,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>845</v>
       </c>
@@ -18114,7 +18148,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>44</v>
       </c>
@@ -18167,7 +18201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>341</v>
       </c>
@@ -18220,7 +18254,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>237</v>
       </c>
@@ -18276,7 +18310,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
@@ -18332,7 +18366,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>851</v>
       </c>
@@ -18391,7 +18425,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>859</v>
       </c>
@@ -18438,7 +18472,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>864</v>
       </c>
@@ -18485,7 +18519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>867</v>
       </c>
@@ -18544,7 +18578,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>874</v>
       </c>
@@ -18595,7 +18629,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>878</v>
       </c>
@@ -18654,7 +18688,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>885</v>
       </c>
@@ -18725,7 +18759,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>892</v>
       </c>
@@ -18796,7 +18830,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>902</v>
       </c>
@@ -18846,7 +18880,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>908</v>
       </c>
@@ -18893,7 +18927,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>914</v>
       </c>
@@ -18940,7 +18974,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>920</v>
       </c>
@@ -18996,7 +19030,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>928</v>
       </c>
@@ -19052,7 +19086,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>935</v>
       </c>
@@ -19099,7 +19133,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>938</v>
       </c>
@@ -19146,7 +19180,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>942</v>
       </c>
@@ -19193,7 +19227,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>948</v>
       </c>
@@ -19255,7 +19289,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>955</v>
       </c>
@@ -19314,7 +19348,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>963</v>
       </c>
@@ -19373,7 +19407,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>969</v>
       </c>
@@ -19420,7 +19454,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>975</v>
       </c>
@@ -19467,7 +19501,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>978</v>
       </c>
@@ -19511,7 +19545,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>982</v>
       </c>
@@ -19570,7 +19604,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>985</v>
       </c>
@@ -19629,7 +19663,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>988</v>
       </c>
@@ -19673,7 +19707,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>994</v>
       </c>
@@ -19732,7 +19766,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>1002</v>
       </c>
@@ -19776,7 +19810,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>1006</v>
       </c>
@@ -19844,7 +19878,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>1014</v>
       </c>
@@ -19900,7 +19934,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>1021</v>
       </c>
@@ -19956,7 +19990,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>1027</v>
       </c>
@@ -20012,7 +20046,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>1033</v>
       </c>
@@ -20074,7 +20108,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1041</v>
       </c>
@@ -20133,7 +20167,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>1046</v>
       </c>
@@ -20192,7 +20226,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>1051</v>
       </c>
@@ -20251,7 +20285,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>1056</v>
       </c>
@@ -20307,7 +20341,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>1060</v>
       </c>
@@ -20363,7 +20397,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>1067</v>
       </c>
@@ -20425,7 +20459,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>1073</v>
       </c>
@@ -20481,7 +20515,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>1080</v>
       </c>
@@ -20537,7 +20571,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>552</v>
       </c>
@@ -20593,7 +20627,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>1088</v>
       </c>
@@ -20640,7 +20674,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>1094</v>
       </c>
@@ -20702,7 +20736,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>1102</v>
       </c>
@@ -20761,7 +20795,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>1108</v>
       </c>
@@ -20832,7 +20866,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>1115</v>
       </c>
@@ -20891,7 +20925,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>649</v>
       </c>
@@ -20950,7 +20984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>1121</v>
       </c>
@@ -21006,7 +21040,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>1128</v>
       </c>
@@ -21065,7 +21099,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>1134</v>
       </c>
@@ -21121,7 +21155,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>1141</v>
       </c>
@@ -21183,7 +21217,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>1145</v>
       </c>
@@ -21245,7 +21279,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>1153</v>
       </c>
@@ -21316,7 +21350,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>1159</v>
       </c>
@@ -21378,7 +21412,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>564</v>
       </c>
@@ -21449,7 +21483,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>1167</v>
       </c>
@@ -21511,7 +21545,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>1175</v>
       </c>
@@ -21573,7 +21607,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>1180</v>
       </c>
@@ -21635,7 +21669,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>1188</v>
       </c>
@@ -21706,7 +21740,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>1198</v>
       </c>
@@ -21777,7 +21811,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>430</v>
       </c>
@@ -21830,7 +21864,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>1209</v>
       </c>
@@ -21901,7 +21935,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>1215</v>
       </c>
@@ -21972,7 +22006,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>1225</v>
       </c>
@@ -22019,7 +22053,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1228</v>
       </c>
@@ -22066,7 +22100,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>1235</v>
       </c>
@@ -22125,7 +22159,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>1242</v>
       </c>
@@ -22172,7 +22206,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>379</v>
       </c>
@@ -22243,7 +22277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1249</v>
       </c>
@@ -22305,7 +22339,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1188</v>
       </c>
@@ -22376,7 +22410,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>1257</v>
       </c>
@@ -22447,7 +22481,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>1264</v>
       </c>
@@ -22518,7 +22552,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>1270</v>
       </c>
@@ -22565,7 +22599,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>1275</v>
       </c>
@@ -22621,7 +22655,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>1180</v>
       </c>
@@ -22683,7 +22717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>1279</v>
       </c>
@@ -22739,7 +22773,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>1286</v>
       </c>
@@ -22786,7 +22820,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>1198</v>
       </c>
@@ -22857,7 +22891,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>422</v>
       </c>
@@ -22913,7 +22947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>1292</v>
       </c>
@@ -22984,7 +23018,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>1302</v>
       </c>
@@ -23043,7 +23077,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="135" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>1308</v>
       </c>
@@ -23099,7 +23133,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>1209</v>
       </c>
@@ -23170,7 +23204,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>1316</v>
       </c>
@@ -23229,7 +23263,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>1322</v>
       </c>
@@ -23288,7 +23322,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>1331</v>
       </c>
@@ -23350,7 +23384,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>455</v>
       </c>
@@ -23409,7 +23443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>455</v>
       </c>
@@ -23468,7 +23502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>1337</v>
       </c>
@@ -23527,7 +23561,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>437</v>
       </c>
@@ -23595,7 +23629,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23666,7 +23700,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>1352</v>
       </c>
@@ -23725,7 +23759,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>446</v>
       </c>
@@ -23793,7 +23827,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>1361</v>
       </c>
@@ -23855,7 +23889,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23926,7 +23960,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>1369</v>
       </c>
@@ -23982,7 +24016,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>463</v>
       </c>
@@ -24053,7 +24087,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>1377</v>
       </c>
@@ -24113,6 +24147,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC229">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ОПИСАНИЕ ПОЛЕЗНОЙ МОДЕЛИ К ПАТЕНТУ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -24123,8 +24164,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="G103" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31304,7 +31345,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31371,7 +31412,9 @@
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>1394</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>1394</v>
       </c>

--- a/fips_out_data/patent.xlsx
+++ b/fips_out_data/patent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Патенты РФ" sheetId="1" r:id="rId1"/>
@@ -10422,7 +10422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10474,9 +10474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10514,7 +10514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10586,7 +10586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10736,12 +10736,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2" filterMode="1"/>
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AC229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z83" sqref="Z83"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10894,7 +10894,7 @@
         <v>Ссылка на страницу официальной публикации патента в PDF</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>78</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>98</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>109</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>125</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>131</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>146</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>162</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>177</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>192</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>203</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>213</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>221</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>232</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>237</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>245</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>253</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>261</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>269</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>280</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>289</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>296</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>301</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>308</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>315</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>326</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>334</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>137</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>356</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>364</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>370</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>379</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>389</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>400</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>409</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>415</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>422</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>437</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>446</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>455</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>463</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>473</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>29</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>473</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>480</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>486</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>497</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>506</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>514</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>506</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>497</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>519</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>486</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>530</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>539</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>545</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>552</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>89</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>560</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>221</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>564</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>573</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>580</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>601</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>606</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>613</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>616</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>623</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>629</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>639</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>646</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>649</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>662</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>670</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>677</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>685</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>692</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>169</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>677</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>701</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>708</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>714</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>718</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>724</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>729</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>732</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>739</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>744</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>751</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>758</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>765</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>769</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>776</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>782</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>789</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>797</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>804</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>807</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>812</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>816</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>822</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>825</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>832</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>839</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>845</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>237</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>851</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>859</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>864</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>867</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>874</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>878</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>885</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>892</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>902</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>908</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>914</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>920</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>928</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>935</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>938</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>942</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>948</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>955</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>963</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>969</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>975</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>978</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>982</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>985</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>988</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>994</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>1002</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>1006</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>1014</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>1021</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>1027</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>1033</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1041</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>1046</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>1051</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>1056</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>1060</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>1067</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>1073</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>1080</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>552</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>1088</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>1094</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>1102</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>1108</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>1115</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>649</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>1121</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>1128</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>1134</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>1141</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>1145</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>1153</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>1159</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>564</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>1167</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>1175</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>1180</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>1188</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>1198</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>1209</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>1215</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>1225</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1228</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>1235</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>1242</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>379</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1249</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1188</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>1257</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>1264</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>1270</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>1275</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>1180</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>1279</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>1286</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>1198</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>422</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>1292</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>1302</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>1308</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>1209</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>1316</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>1322</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>1331</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>455</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>455</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>1337</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>437</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>1352</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>446</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>1361</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>1369</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>463</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>1377</v>
       </c>
@@ -24147,13 +24147,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC229">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ОПИСАНИЕ ПОЛЕЗНОЙ МОДЕЛИ К ПАТЕНТУ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -24164,8 +24158,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView topLeftCell="G103" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fips_out_data/patent.xlsx
+++ b/fips_out_data/patent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38265" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Патенты РФ" sheetId="1" r:id="rId1"/>
@@ -10736,12 +10736,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист2" filterMode="1"/>
   <dimension ref="A1:AC229"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10894,7 +10894,7 @@
         <v>Ссылка на страницу официальной публикации патента в PDF</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>78</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>98</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>109</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>125</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>131</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>146</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>162</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>177</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>192</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>203</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>213</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>221</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>232</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>237</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>245</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>253</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>261</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>269</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>280</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>289</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>296</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>301</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>308</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>315</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>326</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>334</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>341</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>349</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>356</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>364</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>370</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>379</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>389</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>400</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>409</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>415</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>422</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>430</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>437</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>446</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>455</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>463</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>473</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>29</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>473</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>480</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>486</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>497</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>506</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>514</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>506</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>497</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>519</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>486</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>530</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>539</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>545</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>552</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>89</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>560</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>221</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>564</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>573</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>580</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>586</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>593</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>601</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>606</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>613</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>616</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>623</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>629</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>639</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>646</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>649</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>654</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>662</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>670</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>677</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>685</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>692</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>169</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>677</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>701</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>708</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>714</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>718</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>724</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>729</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>732</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>739</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>744</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>751</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>758</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>765</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>769</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>776</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>782</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>789</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>797</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>804</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>807</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>812</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>816</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>822</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>825</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>654</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>832</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>839</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>845</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>44</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>341</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>237</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>851</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>859</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>864</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>867</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>874</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>878</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>885</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>892</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>902</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>908</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>914</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>920</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>928</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>935</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>938</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>942</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>948</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>955</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>963</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>969</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>975</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>978</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>982</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>985</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>988</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>994</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>1002</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>1006</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>1014</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>1021</v>
       </c>
@@ -19990,7 +19990,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>1027</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>1033</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1041</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>1046</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>1051</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>1056</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>1060</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>1067</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>1073</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>1080</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>552</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>1088</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>1094</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>1102</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>1108</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>1115</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>649</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>1121</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>1128</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>1134</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>1141</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>1145</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>1153</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>1159</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>564</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>1167</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>1175</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>1180</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>1188</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>1198</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>430</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>1209</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>1215</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>1225</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1228</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>1235</v>
       </c>
@@ -22159,7 +22159,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>1242</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>379</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1249</v>
       </c>
@@ -22339,7 +22339,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>1188</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>1257</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>1264</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>1270</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>1275</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>1180</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>1279</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>1286</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>1198</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>422</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>1292</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>1302</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>1308</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>1209</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>1316</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>1322</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>1331</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>455</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>455</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>1337</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>437</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>1352</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>446</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>1361</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>1343</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>1369</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>463</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>1377</v>
       </c>
@@ -24147,7 +24147,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC229"/>
+  <autoFilter ref="A1:AC229">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2 296 376"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
@@ -24158,7 +24164,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -31339,7 +31345,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
